--- a/experimentdata/source data file.xlsx
+++ b/experimentdata/source data file.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meidi/Library/CloudStorage/Dropbox/Meidi/trigger wave/code/experiment data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meidi/Desktop/rice/bennettlab/Modulus/manuscript/experiment data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B2072F-6520-4240-9BCE-3B6BC5CB3915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839ED134-B6DA-3742-978C-7B0A0BF99FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39660" yWindow="0" windowWidth="22320" windowHeight="17840" activeTab="3" xr2:uid="{E06AADBD-EA78-324C-9561-B22767788F33}"/>
+    <workbookView xWindow="10140" yWindow="4740" windowWidth="27760" windowHeight="17500" activeTab="3" xr2:uid="{E06AADBD-EA78-324C-9561-B22767788F33}"/>
   </bookViews>
   <sheets>
     <sheet name="fig 3a" sheetId="1" r:id="rId1"/>
     <sheet name="fig 4 a-b" sheetId="4" r:id="rId2"/>
     <sheet name="supp fig1b" sheetId="3" r:id="rId3"/>
-    <sheet name="colony raw count" sheetId="2" r:id="rId4"/>
+    <sheet name="fig 2b" sheetId="5" r:id="rId4"/>
+    <sheet name="colony raw count" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
   <si>
     <t>IS- PF-</t>
   </si>
@@ -197,9 +198,6 @@
     <t>pmdw621</t>
   </si>
   <si>
-    <t>average</t>
-  </si>
-  <si>
     <t>pmdw628</t>
   </si>
   <si>
@@ -209,7 +207,25 @@
     <t>pmdw678</t>
   </si>
   <si>
-    <t>supplementary figure 1b</t>
+    <t>supplementary figure 1a</t>
+  </si>
+  <si>
+    <t>figure2b</t>
+  </si>
+  <si>
+    <t>repeat 1</t>
+  </si>
+  <si>
+    <t>repeat 2</t>
+  </si>
+  <si>
+    <t>repeat 3</t>
+  </si>
+  <si>
+    <t>IS+ PF+ LD+</t>
+  </si>
+  <si>
+    <t>IS+ PF+ LD-</t>
   </si>
 </sst>
 </file>
@@ -598,7 +614,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2986,17 +3002,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F33A66-ED3F-6246-B96D-9C3F7552B061}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B14" sqref="B14:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3010,522 +3026,476 @@
         <v>11</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1175.4336499999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1146.5788700000001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1112.62456</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1144.8790300000001</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2">
-        <v>1239.23558</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1149.60256</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1157.77593</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1182.20469</v>
-      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2">
-        <v>1133.0754899999999</v>
+        <v>1175.4336499999999</v>
       </c>
       <c r="C4" s="2">
-        <v>1059.6982599999999</v>
+        <v>1146.5788700000001</v>
       </c>
       <c r="D4" s="2">
-        <v>1113.07545</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1101.94974</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>1112.62456</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>1239.23558</v>
+      </c>
       <c r="G4" s="2">
-        <v>1054.2884300000001</v>
+        <v>1149.60256</v>
       </c>
       <c r="H4" s="2">
-        <v>951.63712799999996</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1016.24798</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1007.39118</v>
-      </c>
+        <v>1157.77593</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
-        <v>888.11432600000001</v>
+        <v>1133.0754899999999</v>
       </c>
       <c r="C5" s="2">
-        <v>847.89092500000004</v>
+        <v>1059.6982599999999</v>
       </c>
       <c r="D5" s="2">
-        <v>780.04116699999997</v>
-      </c>
-      <c r="E5" s="2">
-        <v>838.68213900000001</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>1113.07545</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>1054.2884300000001</v>
+      </c>
       <c r="G5" s="2">
-        <v>747.97803899999997</v>
+        <v>951.63712799999996</v>
       </c>
       <c r="H5" s="2">
-        <v>703.43677400000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>730.07009600000004</v>
-      </c>
-      <c r="J5" s="2">
-        <v>727.16163600000004</v>
-      </c>
+        <v>1016.24798</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>355.62964499999998</v>
+        <v>888.11432600000001</v>
       </c>
       <c r="C6" s="2">
-        <v>334.07883700000002</v>
+        <v>847.89092500000004</v>
       </c>
       <c r="D6" s="2">
-        <v>304.86944199999999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>331.52597500000002</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>780.04116699999997</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>747.97803899999997</v>
+      </c>
       <c r="G6" s="2">
-        <v>245.60785000000001</v>
+        <v>703.43677400000001</v>
       </c>
       <c r="H6" s="2">
-        <v>248.119856</v>
-      </c>
-      <c r="I6" s="2">
-        <v>250.72267099999999</v>
-      </c>
-      <c r="J6" s="2">
-        <v>248.150126</v>
-      </c>
+        <v>730.07009600000004</v>
+      </c>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>149.41518500000001</v>
+        <v>355.62964499999998</v>
       </c>
       <c r="C7" s="2">
-        <v>145.38908900000001</v>
+        <v>334.07883700000002</v>
       </c>
       <c r="D7" s="2">
-        <v>151.699029</v>
-      </c>
-      <c r="E7" s="2">
-        <v>148.83443399999999</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>304.86944199999999</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>245.60785000000001</v>
+      </c>
       <c r="G7" s="2">
-        <v>101.09864399999999</v>
+        <v>248.119856</v>
       </c>
       <c r="H7" s="2">
-        <v>99.0911756</v>
-      </c>
-      <c r="I7" s="2">
-        <v>99.900099900000001</v>
-      </c>
-      <c r="J7" s="2">
-        <v>100.029973</v>
-      </c>
+        <v>250.72267099999999</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>126.286891</v>
+        <v>149.41518500000001</v>
       </c>
       <c r="C8" s="2">
-        <v>127.808699</v>
+        <v>145.38908900000001</v>
       </c>
       <c r="D8" s="2">
-        <v>131.12067200000001</v>
-      </c>
-      <c r="E8" s="2">
-        <v>128.40542099999999</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>151.699029</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>101.09864399999999</v>
+      </c>
       <c r="G8" s="2">
-        <v>99.073001199999993</v>
+        <v>99.0911756</v>
       </c>
       <c r="H8" s="2">
-        <v>93.140413600000002</v>
-      </c>
-      <c r="I8" s="2">
-        <v>87.765800799999994</v>
-      </c>
-      <c r="J8" s="2">
-        <v>93.326405199999996</v>
-      </c>
+        <v>99.900099900000001</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="B9" s="2">
-        <v>125.17956100000001</v>
+        <v>126.286891</v>
       </c>
       <c r="C9" s="2">
-        <v>124.601966</v>
+        <v>127.808699</v>
       </c>
       <c r="D9" s="2">
-        <v>126.417931</v>
-      </c>
-      <c r="E9" s="2">
-        <v>125.39981899999999</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>131.12067200000001</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>99.073001199999993</v>
+      </c>
       <c r="G9" s="2">
-        <v>99.136181800000003</v>
+        <v>93.140413600000002</v>
       </c>
       <c r="H9" s="2">
-        <v>96.193085800000006</v>
-      </c>
-      <c r="I9" s="2">
-        <v>100.069816</v>
-      </c>
-      <c r="J9" s="2">
-        <v>98.466361199999994</v>
-      </c>
+        <v>87.765800799999994</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B10" s="2">
+        <v>125.17956100000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>124.601966</v>
+      </c>
+      <c r="D10" s="2">
+        <v>126.417931</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>99.136181800000003</v>
+      </c>
+      <c r="G10" s="2">
+        <v>96.193085800000006</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100.069816</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
         <v>136.737168</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>128.650194</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>123.634865</v>
       </c>
-      <c r="E10" s="2">
-        <v>129.67407600000001</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>108.243605</v>
       </c>
-      <c r="H10" s="2">
+      <c r="G11" s="2">
         <v>104.973326</v>
       </c>
-      <c r="I10" s="2">
+      <c r="H11" s="2">
         <v>108.25594</v>
       </c>
-      <c r="J10" s="2">
-        <v>107.157624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>100</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2052.2521200000001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2166.7495199999998</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2242.6001999999999</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2153.8672799999999</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2">
-        <v>3141.4560099999999</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3115.60727</v>
-      </c>
-      <c r="I12" s="2">
-        <v>3624.74586</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3293.9363800000001</v>
-      </c>
+      <c r="H12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2199.3200200000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2206.4461200000001</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2219.4513700000002</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2208.4058399999999</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2">
-        <v>2629.36573</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2453.92652</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2751.4619899999998</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2611.5847399999998</v>
-      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2">
-        <v>1931.0585000000001</v>
+        <v>2052.2521200000001</v>
       </c>
       <c r="C14" s="2">
-        <v>1936.4282700000001</v>
+        <v>2166.7495199999998</v>
       </c>
       <c r="D14" s="2">
-        <v>1852.58402</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1906.6902600000001</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>2242.6001999999999</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>3141.4560099999999</v>
+      </c>
       <c r="G14" s="2">
-        <v>1180.93238</v>
+        <v>3115.60727</v>
       </c>
       <c r="H14" s="2">
-        <v>1180.14599</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1263.40951</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1208.16263</v>
-      </c>
+        <v>3624.74586</v>
+      </c>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>714.38431800000001</v>
+        <v>2199.3200200000001</v>
       </c>
       <c r="C15" s="2">
-        <v>648.31383300000005</v>
+        <v>2206.4461200000001</v>
       </c>
       <c r="D15" s="2">
-        <v>646.00731599999995</v>
-      </c>
-      <c r="E15" s="2">
-        <v>669.568489</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>2219.4513700000002</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>2629.36573</v>
+      </c>
       <c r="G15" s="2">
-        <v>342.26276899999999</v>
+        <v>2453.92652</v>
       </c>
       <c r="H15" s="2">
-        <v>297.55267300000003</v>
-      </c>
-      <c r="I15" s="2">
-        <v>340.29747099999997</v>
-      </c>
-      <c r="J15" s="2">
-        <v>326.70430499999998</v>
-      </c>
+        <v>2751.4619899999998</v>
+      </c>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>209.720373</v>
+        <v>1931.0585000000001</v>
       </c>
       <c r="C16" s="2">
-        <v>189.68904499999999</v>
+        <v>1936.4282700000001</v>
       </c>
       <c r="D16" s="2">
-        <v>176.86424500000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>192.09122099999999</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>1852.58402</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>1180.93238</v>
+      </c>
       <c r="G16" s="2">
-        <v>100.86287299999999</v>
+        <v>1180.14599</v>
       </c>
       <c r="H16" s="2">
-        <v>103.96811599999999</v>
-      </c>
-      <c r="I16" s="2">
-        <v>108.877239</v>
-      </c>
-      <c r="J16" s="2">
-        <v>104.56941</v>
-      </c>
+        <v>1263.40951</v>
+      </c>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2">
-        <v>212.02344099999999</v>
+        <v>714.38431800000001</v>
       </c>
       <c r="C17" s="2">
-        <v>138.93572499999999</v>
+        <v>648.31383300000005</v>
       </c>
       <c r="D17" s="2">
-        <v>273.53018700000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>208.163118</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>646.00731599999995</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>342.26276899999999</v>
+      </c>
       <c r="G17" s="2">
-        <v>89.296068700000006</v>
+        <v>297.55267300000003</v>
       </c>
       <c r="H17" s="2">
-        <v>87.062510900000007</v>
-      </c>
-      <c r="I17" s="2">
-        <v>95.811818700000003</v>
-      </c>
-      <c r="J17" s="2">
-        <v>90.723466099999996</v>
-      </c>
+        <v>340.29747099999997</v>
+      </c>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>167.28990400000001</v>
+        <v>209.720373</v>
       </c>
       <c r="C18" s="2">
-        <v>155.97235900000001</v>
+        <v>189.68904499999999</v>
       </c>
       <c r="D18" s="2">
-        <v>169.63926499999999</v>
-      </c>
-      <c r="E18" s="2">
-        <v>164.30050900000001</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>176.86424500000001</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>100.86287299999999</v>
+      </c>
       <c r="G18" s="2">
-        <v>88.603196699999998</v>
+        <v>103.96811599999999</v>
       </c>
       <c r="H18" s="2">
-        <v>92.240285900000003</v>
-      </c>
-      <c r="I18" s="2">
-        <v>98.409429000000003</v>
-      </c>
-      <c r="J18" s="2">
-        <v>93.084303899999995</v>
-      </c>
+        <v>108.877239</v>
+      </c>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="B19" s="2">
+        <v>212.02344099999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>138.93572499999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>273.53018700000001</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>89.296068700000006</v>
+      </c>
+      <c r="G19" s="2">
+        <v>87.062510900000007</v>
+      </c>
+      <c r="H19" s="2">
+        <v>95.811818700000003</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>167.28990400000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>155.97235900000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>169.63926499999999</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>88.603196699999998</v>
+      </c>
+      <c r="G20" s="2">
+        <v>92.240285900000003</v>
+      </c>
+      <c r="H20" s="2">
+        <v>98.409429000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
         <v>150.01948300000001</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C21" s="2">
         <v>138.753176</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D21" s="2">
         <v>147.18557300000001</v>
       </c>
-      <c r="E19" s="2">
-        <v>145.319411</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>93.474121499999995</v>
       </c>
-      <c r="H19" s="2">
+      <c r="G21" s="2">
         <v>86.880466499999997</v>
       </c>
-      <c r="I19" s="2">
+      <c r="H21" s="2">
         <v>96.753878700000001</v>
-      </c>
-      <c r="J19" s="2">
-        <v>92.369488899999993</v>
       </c>
     </row>
   </sheetData>
@@ -3534,10 +3504,212 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8993ACE5-2E3F-D041-83F2-2FFC13F5CDAF}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2052.2521200000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2166.7495199999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2242.6001999999999</v>
+      </c>
+      <c r="F4">
+        <v>4915.2977412730997</v>
+      </c>
+      <c r="G4">
+        <v>4811.28404669261</v>
+      </c>
+      <c r="H4">
+        <v>5272.9768515629903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1931.0585000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1936.4282700000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1852.58402</v>
+      </c>
+      <c r="F5">
+        <v>4363.10973602791</v>
+      </c>
+      <c r="G5">
+        <v>4636.7239101717296</v>
+      </c>
+      <c r="H5">
+        <v>4848.0385593787696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>209.720373</v>
+      </c>
+      <c r="C6" s="2">
+        <v>189.68904499999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>176.86424500000001</v>
+      </c>
+      <c r="F6">
+        <v>4587.3165477312496</v>
+      </c>
+      <c r="G6">
+        <v>4565.8141887010497</v>
+      </c>
+      <c r="H6">
+        <v>4762.2737197999604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>167.28990400000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>155.97235900000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>169.63926499999999</v>
+      </c>
+      <c r="F7">
+        <v>4633.1772385412196</v>
+      </c>
+      <c r="G7">
+        <v>4817.8541299179396</v>
+      </c>
+      <c r="H7">
+        <v>4754.1975495386496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>150.01948300000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>138.753176</v>
+      </c>
+      <c r="D8" s="2">
+        <v>147.18557300000001</v>
+      </c>
+      <c r="F8">
+        <v>4942.5903245560303</v>
+      </c>
+      <c r="G8">
+        <v>5119.6250924936303</v>
+      </c>
+      <c r="H8">
+        <v>4853.4125557032303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3934AF2F-A828-5044-B8E4-095A7E99FCF5}">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
